--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>C、W</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,12 +337,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,40 +641,40 @@
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1119,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{E0C67144-1368-468A-B879-9BAB52E5283A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{4FE29FAB-0952-4B02-A5C6-9194F9948631}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1405,16 +1402,16 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.55555555555556" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="7.55833333333333" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:7">
+    <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -1437,8 +1434,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.15"/>
-    <row r="3" ht="15.15" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="14.25"/>
+    <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -1461,12 +1458,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.15" spans="1:1">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" ht="15.15" spans="1:7">
+    <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="3">
         <v>15</v>
       </c>
@@ -1489,8 +1489,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.15"/>
-    <row r="7" ht="15.15" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="14.25"/>
+    <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="3">
         <v>22</v>
       </c>
@@ -1513,8 +1513,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.15"/>
-    <row r="9" ht="15.15" spans="1:3">
+    <row r="8" s="1" customFormat="1" ht="14.25"/>
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="3">
         <v>29</v>
       </c>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
+    <sheet name="项目" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>C、W</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1117,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{4FE29FAB-0952-4B02-A5C6-9194F9948631}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{D6561473-C9F6-4602-B43D-D4A4FF782C5C}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1401,17 +1399,17 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.55833333333333" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="7.55555555555556" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" ht="15.15" spans="1:7">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -1434,8 +1432,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25"/>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="15.15"/>
+    <row r="3" ht="15.15" spans="1:7">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -1458,15 +1456,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="4" s="1" customFormat="1" ht="15.15" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" ht="15.15" spans="1:7">
       <c r="A5" s="3">
         <v>15</v>
       </c>
@@ -1489,8 +1484,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="14.25"/>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="15.15"/>
+    <row r="7" ht="15.15" spans="1:7">
       <c r="A7" s="3">
         <v>22</v>
       </c>
@@ -1513,8 +1508,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.25"/>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="8" s="1" customFormat="1" ht="15.15"/>
+    <row r="9" ht="15.15" spans="1:3">
       <c r="A9" s="3">
         <v>29</v>
       </c>
@@ -1529,4 +1524,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
-    <sheet name="项目" sheetId="2" r:id="rId2"/>
+    <sheet name="任务" sheetId="2" r:id="rId2"/>
+    <sheet name="项目周期" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,9 +29,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>C、W</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>计划开始</t>
+  </si>
+  <si>
+    <t>实际开始</t>
+  </si>
+  <si>
+    <t>计划完成</t>
+  </si>
+  <si>
+    <t>实际完成</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>python环境搭建</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>github环境搭建</t>
+  </si>
+  <si>
+    <t>建立autotest项目</t>
+  </si>
+  <si>
+    <t>封装仪表控制VISA类</t>
+  </si>
+  <si>
+    <t>开发控制仪表发射CW信号函数</t>
+  </si>
+  <si>
+    <t>开发控制仪表接收测试Power函数</t>
+  </si>
+  <si>
+    <t>开发控制仪表发射LTE波形函数</t>
+  </si>
+  <si>
+    <t>开发仪表LTE测量函数</t>
+  </si>
+  <si>
+    <t>开发项目log日志类</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>计划耗时</t>
+  </si>
+  <si>
+    <t>每日投入</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>autotest</t>
+  </si>
+  <si>
+    <t>实现python自动化发信号、接收信号，CW、LTE</t>
+  </si>
+  <si>
+    <t>30h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>sle自动化测试</t>
+  </si>
+  <si>
+    <t>实现SLE自动化测试</t>
+  </si>
+  <si>
+    <t>60h</t>
   </si>
 </sst>
 </file>
@@ -676,8 +764,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1117,7 +1208,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{D6561473-C9F6-4602-B43D-D4A4FF782C5C}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{82CE8221-AF2A-450A-AEDB-511C4EB59F25}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1405,118 +1496,118 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.55555555555556" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="7.55555555555556" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:7">
-      <c r="A1" s="2">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="3">
         <v>2</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>3</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>4</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="3">
         <v>5</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="3">
         <v>6</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.15"/>
+    <row r="2" s="2" customFormat="1" ht="15.15"/>
     <row r="3" ht="15.15" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>11</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>12</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>13</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" ht="15.15" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:7">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>15</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>17</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>18</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>19</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>20</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.15"/>
+    <row r="6" s="2" customFormat="1" ht="15.15"/>
     <row r="7" ht="15.15" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>22</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>23</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>24</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>25</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>26</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>27</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.15"/>
+    <row r="8" s="2" customFormat="1" ht="15.15"/>
     <row r="9" ht="15.15" spans="1:3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>29</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>30</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>31</v>
       </c>
     </row>
@@ -1529,14 +1620,249 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="33.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45574</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45574</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45574</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45574</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45575</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45575</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45575</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45575</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45575</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45575</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45575</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45575</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45576</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45576</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45577</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45577</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45578</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45578</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="46.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="10.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45574</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45589</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45620</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>C、W</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <t>github环境搭建</t>
@@ -1208,7 +1211,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{82CE8221-AF2A-450A-AEDB-511C4EB59F25}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{84BD0F3B-A956-4529-94FF-33C738DAB9DD}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1491,16 +1494,16 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.55555555555556" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="7.55833333333333" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.89166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:7">
+    <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -1523,8 +1526,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15.15"/>
-    <row r="3" ht="15.15" spans="1:7">
+    <row r="2" s="2" customFormat="1" ht="14.25"/>
+    <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="4">
         <v>8</v>
       </c>
@@ -1547,12 +1550,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15.15" spans="1:1">
+    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:7">
+    <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="4">
         <v>15</v>
       </c>
@@ -1575,8 +1578,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15.15"/>
-    <row r="7" ht="15.15" spans="1:7">
+    <row r="6" s="2" customFormat="1" ht="14.25"/>
+    <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="4">
         <v>22</v>
       </c>
@@ -1599,8 +1602,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.15"/>
-    <row r="9" ht="15.15" spans="1:3">
+    <row r="8" s="2" customFormat="1" ht="14.25"/>
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="4">
         <v>29</v>
       </c>
@@ -1620,17 +1623,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="33.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="11.8888888888889"/>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="33.225" customWidth="1"/>
+    <col min="2" max="2" width="11.8916666666667"/>
+    <col min="4" max="4" width="10.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1653,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1666,10 +1669,13 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>45574</v>
@@ -1679,11 +1685,14 @@
       </c>
       <c r="F3" t="s">
         <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>45575</v>
@@ -1697,7 +1706,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>45575</v>
@@ -1711,7 +1720,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>45575</v>
@@ -1725,7 +1734,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>45575</v>
@@ -1739,7 +1748,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>45576</v>
@@ -1753,7 +1762,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>45577</v>
@@ -1767,7 +1776,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>45578</v>
@@ -1790,53 +1799,53 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="46.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="10.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889"/>
+    <col min="1" max="1" width="15.225" customWidth="1"/>
+    <col min="2" max="2" width="46.775" customWidth="1"/>
+    <col min="3" max="3" width="10.775" customWidth="1"/>
+    <col min="6" max="6" width="11.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>45574</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1">
         <v>45589</v>
@@ -1844,19 +1853,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>45589</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>45620</v>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>C、W</t>
   </si>
@@ -1211,7 +1211,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{84BD0F3B-A956-4529-94FF-33C738DAB9DD}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{19E80820-2D8C-4406-9593-961E4A8BD6FA}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1626,7 +1626,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1690,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1703,8 +1703,11 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1716,6 +1719,9 @@
       </c>
       <c r="F5" t="s">
         <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
     <sheet name="任务" sheetId="2" r:id="rId2"/>
     <sheet name="项目周期" sheetId="3" r:id="rId3"/>
+    <sheet name="SLE-RCT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>C、W</t>
   </si>
@@ -55,6 +56,9 @@
     <t>python环境搭建</t>
   </si>
   <si>
+    <t>10-9</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
@@ -67,6 +71,9 @@
     <t>建立autotest项目</t>
   </si>
   <si>
+    <t>10-10</t>
+  </si>
+  <si>
     <t>封装仪表控制VISA类</t>
   </si>
   <si>
@@ -79,12 +86,21 @@
     <t>开发控制仪表发射LTE波形函数</t>
   </si>
   <si>
+    <t>10-11</t>
+  </si>
+  <si>
     <t>开发仪表LTE测量函数</t>
   </si>
   <si>
+    <t>10-12</t>
+  </si>
+  <si>
     <t>开发项目log日志类</t>
   </si>
   <si>
+    <t>10-13</t>
+  </si>
+  <si>
     <t>项目</t>
   </si>
   <si>
@@ -122,6 +138,51 @@
   </si>
   <si>
     <t>60h</t>
+  </si>
+  <si>
+    <t>梳理协议参数</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>10-21</t>
+  </si>
+  <si>
+    <t>UI设计</t>
+  </si>
+  <si>
+    <t>10-22</t>
+  </si>
+  <si>
+    <t>10-26</t>
+  </si>
+  <si>
+    <t>UI开发</t>
+  </si>
+  <si>
+    <t>10-30</t>
+  </si>
+  <si>
+    <t>测试方案开发-仪表方案-demo</t>
+  </si>
+  <si>
+    <t>11-05</t>
+  </si>
+  <si>
+    <t>测试方案开发-终端方案-demo</t>
+  </si>
+  <si>
+    <t>11-10</t>
+  </si>
+  <si>
+    <t>测试方案开发-测试报告</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>测试方案开发-全部</t>
   </si>
 </sst>
 </file>
@@ -767,8 +828,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1211,7 +1275,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{19E80820-2D8C-4406-9593-961E4A8BD6FA}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{6902F84B-27ED-4578-B47E-9650362C5001}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1497,120 +1561,120 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.55833333333333" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.89166666666667" style="2"/>
+    <col min="1" max="1" width="7.55555555555556" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="3">
+    <row r="1" ht="15.15" spans="1:7">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>2</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>3</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>4</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>5</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>6</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.25"/>
-    <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="4">
+    <row r="2" s="3" customFormat="1" ht="15.15"/>
+    <row r="3" ht="15.15" spans="1:7">
+      <c r="A3" s="5">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>12</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>13</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="4">
+    <row r="5" ht="15.15" spans="1:7">
+      <c r="A5" s="5">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>18</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>19</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>20</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="14.25"/>
-    <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="4">
+    <row r="6" s="3" customFormat="1" ht="15.15"/>
+    <row r="7" ht="15.15" spans="1:7">
+      <c r="A7" s="5">
         <v>22</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>23</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>24</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>25</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>26</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>27</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="14.25"/>
-    <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="4">
+    <row r="8" s="3" customFormat="1" ht="15.15"/>
+    <row r="9" ht="15.15" spans="1:3">
+      <c r="A9" s="5">
         <v>29</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>30</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>31</v>
       </c>
     </row>
@@ -1625,15 +1689,15 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="33.225" customWidth="1"/>
-    <col min="2" max="2" width="11.8916666666667"/>
-    <col min="4" max="4" width="10.775" customWidth="1"/>
+    <col min="1" max="1" width="33.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1660,138 +1724,162 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>45574</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45574</v>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45574</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45574</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45575</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45575</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45575</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45575</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1">
-        <v>45575</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45575</v>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45575</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45575</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45576</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45576</v>
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45577</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45577</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45578</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45578</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1809,72 +1897,211 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.225" customWidth="1"/>
-    <col min="2" max="2" width="46.775" customWidth="1"/>
-    <col min="3" max="3" width="10.775" customWidth="1"/>
-    <col min="6" max="6" width="11.8916666666667"/>
+    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="46.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="10.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
         <v>45574</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
         <v>45589</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2">
         <v>45589</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
         <v>45620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="29.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.7777777777778"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="3"/>
+    <workbookView windowWidth="12300" windowHeight="4176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>C、W</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>任务</t>
   </si>
   <si>
@@ -57,9 +60,6 @@
   </si>
   <si>
     <t>10-9</t>
-  </si>
-  <si>
-    <t>W</t>
   </si>
   <si>
     <t>√</t>
@@ -1275,7 +1275,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{6902F84B-27ED-4578-B47E-9650362C5001}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{FC98E3E0-DE3E-4EED-B371-1FDF50FF305D}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1614,9 +1614,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:1">
+    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:7">
@@ -1689,8 +1692,8 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1702,42 +1705,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1748,19 +1751,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1774,16 +1777,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1797,22 +1800,22 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1823,7 +1826,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1837,7 +1843,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1851,7 +1857,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1865,7 +1871,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1879,7 +1885,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1982,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1988,22 +1994,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2017,7 +2023,7 @@
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2031,7 +2037,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2045,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2059,7 +2065,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2073,7 +2079,7 @@
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2087,7 +2093,7 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2101,7 +2107,7 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12300" windowHeight="4176" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
     <sheet name="任务" sheetId="2" r:id="rId2"/>
     <sheet name="项目周期" sheetId="3" r:id="rId3"/>
     <sheet name="SLE-RCT" sheetId="4" r:id="rId4"/>
+    <sheet name="Code Review" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>C、W</t>
   </si>
@@ -38,6 +39,9 @@
     <t>W</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>任务</t>
   </si>
   <si>
@@ -83,6 +87,9 @@
     <t>开发控制仪表接收测试Power函数</t>
   </si>
   <si>
+    <t>Code Review 学习</t>
+  </si>
+  <si>
     <t>开发控制仪表发射LTE波形函数</t>
   </si>
   <si>
@@ -183,6 +190,48 @@
   </si>
   <si>
     <t>测试方案开发-全部</t>
+  </si>
+  <si>
+    <t>开发步骤</t>
+  </si>
+  <si>
+    <t>需求方</t>
+  </si>
+  <si>
+    <t>开发团队</t>
+  </si>
+  <si>
+    <t>开发者</t>
+  </si>
+  <si>
+    <t>产生需求</t>
+  </si>
+  <si>
+    <t>需求评审</t>
+  </si>
+  <si>
+    <t>开发阶段</t>
+  </si>
+  <si>
+    <t>测试阶段</t>
+  </si>
+  <si>
+    <t>交付/运维</t>
+  </si>
+  <si>
+    <t>开发计划</t>
+  </si>
+  <si>
+    <t>代码结构设计</t>
+  </si>
+  <si>
+    <t>开发代码</t>
+  </si>
+  <si>
+    <t>评审代码-code review</t>
+  </si>
+  <si>
+    <t>交付代码</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1324,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{FC98E3E0-DE3E-4EED-B371-1FDF50FF305D}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{4C1AC454-BACC-46BA-94E7-8A745A60BA16}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1558,7 +1607,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1614,12 +1663,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:2">
+    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:7">
@@ -1690,10 +1742,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1705,142 +1757,148 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -1848,13 +1906,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -1885,6 +1943,20 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1900,7 +1972,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1913,39 +1985,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>45574</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>45589</v>
@@ -1953,19 +2025,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>45589</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2">
         <v>45620</v>
@@ -1994,33 +2066,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -2028,13 +2100,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -2042,13 +2114,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -2056,13 +2128,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -2070,13 +2142,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -2084,13 +2156,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -2098,16 +2170,94 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="4"/>
+    <workbookView windowWidth="12300" windowHeight="4416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>C、W</t>
   </si>
@@ -39,7 +39,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>C</t>
+    <t>CW</t>
   </si>
   <si>
     <t>任务</t>
@@ -1324,7 +1324,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{4C1AC454-BACC-46BA-94E7-8A745A60BA16}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{DE76260F-2373-45EB-9F75-7C23279EA755}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1607,7 +1607,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1744,8 +1744,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1890,7 +1890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1902,6 +1902,9 @@
       </c>
       <c r="F7" t="s">
         <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2193,7 +2196,7 @@
   <sheetPr/>
   <dimension ref="A3:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>C、W</t>
   </si>
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1907,7 +1907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1919,6 +1919,9 @@
       </c>
       <c r="F8" t="s">
         <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12300" windowHeight="4416" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
   <si>
     <t>C、W</t>
   </si>
@@ -90,6 +90,12 @@
     <t>Code Review 学习</t>
   </si>
   <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
     <t>开发控制仪表发射LTE波形函数</t>
   </si>
   <si>
@@ -97,9 +103,6 @@
   </si>
   <si>
     <t>开发仪表LTE测量函数</t>
-  </si>
-  <si>
-    <t>10-12</t>
   </si>
   <si>
     <t>开发项目log日志类</t>
@@ -1324,7 +1327,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{DE76260F-2373-45EB-9F75-7C23279EA755}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2298C0EF-93B2-44D2-BF10-F869E1E5A82B}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1607,7 +1610,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1663,7 +1666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:3">
+    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1671,6 +1674,9 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1742,10 +1748,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1924,7 +1930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" customFormat="1" spans="1:7">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1936,6 +1942,9 @@
       </c>
       <c r="F9" t="s">
         <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1957,12 +1966,26 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1991,39 +2014,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>45574</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2">
         <v>45589</v>
@@ -2031,19 +2054,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>45589</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2">
         <v>45620</v>
@@ -2092,13 +2115,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -2106,13 +2129,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -2120,13 +2143,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -2134,13 +2157,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -2148,13 +2171,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -2162,13 +2185,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -2176,13 +2199,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -2210,60 +2233,60 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -880,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,6 +888,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1615,127 +1618,127 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.55555555555556" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="7.55555555555556" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:7">
-      <c r="A1" s="4">
+      <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>2</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="5">
         <v>3</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>4</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="5">
         <v>5</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="5">
         <v>6</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15.15"/>
+    <row r="2" s="4" customFormat="1" ht="15.15"/>
     <row r="3" ht="15.15" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>13</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:5">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1" ht="15.15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>15</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>16</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>17</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>18</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>19</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>20</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15.15"/>
+    <row r="6" s="4" customFormat="1" ht="15.15"/>
     <row r="7" ht="15.15" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>22</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>23</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>24</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>25</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>26</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>27</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="15.15"/>
+    <row r="8" s="4" customFormat="1" ht="15.15"/>
     <row r="9" ht="15.15" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>29</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>30</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>31</v>
       </c>
     </row>
@@ -1751,7 +1754,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1947,7 +1950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1959,6 +1962,9 @@
       </c>
       <c r="F10" t="s">
         <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
   <si>
     <t>C、W</t>
   </si>
@@ -880,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +888,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1330,7 +1327,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2298C0EF-93B2-44D2-BF10-F869E1E5A82B}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{7CB91994-E54D-46D0-8800-9034C98EEE2C}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1613,132 +1610,135 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.55555555555556" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="4"/>
+    <col min="1" max="1" width="7.55555555555556" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:7">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>2</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>3</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>4</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>5</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>6</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="15.15"/>
+    <row r="2" s="3" customFormat="1" ht="15.15"/>
     <row r="3" ht="15.15" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>12</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>13</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="15.15" spans="1:5">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" ht="15.15" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>17</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>18</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>19</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>20</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="15.15"/>
+    <row r="6" s="3" customFormat="1" ht="15.15"/>
     <row r="7" ht="15.15" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>22</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>24</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>25</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>26</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>27</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="15.15"/>
+    <row r="8" s="3" customFormat="1" ht="15.15"/>
     <row r="9" ht="15.15" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>29</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>30</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>31</v>
       </c>
     </row>
@@ -1751,10 +1751,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1963,8 +1963,8 @@
       <c r="F10" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
-        <v>0.7</v>
+      <c r="G10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1994,6 +1994,10 @@
       <c r="F12" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>C、W</t>
   </si>
@@ -1327,7 +1327,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{7CB91994-E54D-46D0-8800-9034C98EEE2C}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{E31B166F-686D-42AF-B1A0-A7D2856543C7}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1610,7 +1610,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1706,7 +1706,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15.15"/>
+    <row r="6" s="3" customFormat="1" ht="15.15" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="7" ht="15.15" spans="1:7">
       <c r="A7" s="5">
         <v>22</v>
@@ -1754,7 +1758,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1981,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1993,6 +1997,9 @@
       </c>
       <c r="F12" t="s">
         <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:4">

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
   <si>
     <t>C、W</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>10-13</t>
+  </si>
+  <si>
+    <t>按照代码运行流程增加log提示</t>
+  </si>
+  <si>
+    <t>10-17</t>
+  </si>
+  <si>
+    <t>项目结构设计</t>
   </si>
   <si>
     <t>项目</t>
@@ -1327,7 +1336,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{E31B166F-686D-42AF-B1A0-A7D2856543C7}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0FE7B422-3471-46E8-95A5-CD3209B83EAC}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1755,10 +1764,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2002,9 +2011,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2018,7 +2065,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2031,39 +2078,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>45574</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2">
         <v>45589</v>
@@ -2071,19 +2118,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>45589</v>
       </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="2">
         <v>45620</v>
@@ -2101,7 +2148,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2132,13 +2179,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -2146,13 +2193,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -2160,13 +2207,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -2174,13 +2221,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -2188,13 +2235,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -2202,13 +2249,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -2216,13 +2263,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -2250,60 +2297,60 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>C、W</t>
   </si>
@@ -889,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +897,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1336,7 +1339,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0FE7B422-3471-46E8-95A5-CD3209B83EAC}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{8A60C51D-EE77-4CE3-89AA-8072B6E4B464}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1619,139 +1622,142 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.55555555555556" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="7.55555555555556" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:7">
-      <c r="A1" s="4">
+      <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>2</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="5">
         <v>3</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>4</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="5">
         <v>5</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="5">
         <v>6</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15.15"/>
+    <row r="2" s="4" customFormat="1" ht="15.15"/>
     <row r="3" ht="15.15" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>13</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:7">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>15</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>16</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>17</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>18</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>19</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>20</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="4" customFormat="1" ht="15.15" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" ht="15.15" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>22</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>23</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>24</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>25</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>26</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>27</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="15.15"/>
+    <row r="8" s="4" customFormat="1" ht="15.15"/>
     <row r="9" ht="15.15" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>29</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>30</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>31</v>
       </c>
     </row>
@@ -1767,7 +1773,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1980,7 +1986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1992,6 +1998,9 @@
       </c>
       <c r="F11" t="s">
         <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2011,7 +2020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2023,6 +2032,9 @@
       </c>
       <c r="F13" t="s">
         <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6">

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="71">
   <si>
     <t>C、W</t>
   </si>
@@ -889,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,9 +897,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1339,7 +1336,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{8A60C51D-EE77-4CE3-89AA-8072B6E4B464}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0C930E9D-3F23-42DC-BD4D-E5AD23D5566F}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1622,142 +1619,146 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.55555555555556" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="4"/>
+    <col min="1" max="1" width="7.55555555555556" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:7">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>2</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>3</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>4</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>5</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>6</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="15.15"/>
+    <row r="2" s="3" customFormat="1" ht="15.15"/>
     <row r="3" ht="15.15" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>12</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>13</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="15.15" spans="1:7">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>17</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>18</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>19</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>20</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="15.15" spans="1:3">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="3" customFormat="1" ht="15.15" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>22</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>24</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>25</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>26</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>27</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="15.15"/>
+    <row r="8" s="3" customFormat="1" ht="15.15" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="9" ht="15.15" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>29</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>30</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>31</v>
       </c>
     </row>
@@ -1773,7 +1774,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1999,8 +2000,8 @@
       <c r="F11" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="3">
-        <v>0.3</v>
+      <c r="G11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
   <si>
     <t>C、W</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>项目结构设计</t>
+  </si>
+  <si>
+    <t>项目总结，输出项目结构图</t>
+  </si>
+  <si>
+    <t>10-25</t>
   </si>
   <si>
     <t>项目</t>
@@ -1336,7 +1342,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0C930E9D-3F23-42DC-BD4D-E5AD23D5566F}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{02021C94-7D0F-4399-9572-0A6C4C396E34}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1619,7 +1625,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1771,10 +1777,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2066,6 +2072,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2078,7 +2098,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2091,39 +2111,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>45574</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2">
         <v>45589</v>
@@ -2131,19 +2151,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>45589</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2">
         <v>45620</v>
@@ -2161,7 +2181,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2192,13 +2212,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -2206,13 +2226,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -2220,13 +2240,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -2234,13 +2254,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -2248,13 +2268,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -2262,13 +2282,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -2276,13 +2296,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -2310,60 +2330,60 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
   <si>
     <t>C、W</t>
   </si>
@@ -1342,7 +1342,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{02021C94-7D0F-4399-9572-0A6C4C396E34}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C1313EC5-4789-4A46-B6E1-19D3B8426839}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1622,10 +1622,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1768,6 +1768,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1779,8 +1784,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="$A14:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/check-in-record.xlsx
+++ b/check-in-record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2024-10" sheetId="1" r:id="rId1"/>
@@ -1342,7 +1342,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C1313EC5-4789-4A46-B6E1-19D3B8426839}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{73C5E61B-C4A9-42A6-8603-C5A9815544A5}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1624,8 +1624,8 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1784,8 +1784,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
